--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9EEFE9-F1B2-453D-AF9A-D2D60185BE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9504E-1BC0-4396-A39D-91770E44BFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザ登録" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="78">
   <si>
     <t>ユーザ登録処理</t>
     <rPh sb="3" eb="7">
@@ -261,10 +261,6 @@
   <si>
     <t>UserID（R）
 UserPass（R）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -537,6 +533,241 @@
   </si>
   <si>
     <t>チャット画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パスワードを忘れた方はこちら】
+クリック</t>
+    <rPh sb="7" eb="8">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードリセット画面を表示</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードリセット画面</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【メールアドレス
+またはユーザー名】
+入力
+【パスワードをリセットする】
+クリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass_change_1.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パスワード】表示
+【パスワード変更】クリック</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報取得
+存在していた場合、
+pass_change_2.htmlに遷移
+存在していない場合、
+pass_change_1.htmlに遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_info_change.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id（R）
+password（U）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id（R）
+password（R）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したユーザー情報のパスワードを更新
+pass_change_4.htmlに遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new_topic.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>話題新規作成画面を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>話題新規作成画面</t>
+    <rPh sb="0" eb="2">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>サクセイガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【スレッドの名前】入力
+【スレッドの説明】入力
+【ジャンルを選択してください】選択
+【新規作成】クリック</t>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new_topic_create.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに登録
+home.htmlから遷移した場合、
+home.htmlに戻る
+chat.htmlから遷移した場合、
+chat.htmlに戻る</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2332,16 +2563,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>71820</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2567370</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>59553</xdr:rowOff>
+      <xdr:rowOff>15102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>81292</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>728992</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>107178</xdr:rowOff>
+      <xdr:rowOff>62727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2356,7 +2587,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="8233514">
-          <a:off x="3265870" y="8200253"/>
+          <a:off x="3107120" y="8155802"/>
           <a:ext cx="815922" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2457,66 +2688,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矢印: 右 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8114D5E9-35F8-4CF5-839A-DDA034EC78F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5357813" y="2852737"/>
-          <a:ext cx="533400" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -2543,66 +2714,6 @@
         <a:xfrm>
           <a:off x="7035800" y="4467225"/>
           <a:ext cx="561975" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>283468</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>189841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>559693</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85934</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矢印: 右 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CAFB7D-3956-498D-BF10-D390A18BAF6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="13626673">
-          <a:off x="3210384" y="2971575"/>
-          <a:ext cx="810493" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2757,66 +2868,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矢印: 右 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306C96BB-2ACD-4C2B-90D2-B571DE84AA3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5357813" y="2852737"/>
-          <a:ext cx="533400" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -2878,15 +2929,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>283468</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>189841</xdr:rowOff>
+      <xdr:colOff>16334</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>559693</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85934</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>20377</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2900,8 +2951,8 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="13626673">
-          <a:off x="3210384" y="2971575"/>
+        <a:xfrm rot="8106663">
+          <a:off x="3210384" y="1828575"/>
           <a:ext cx="810493" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2962,6 +3013,186 @@
       <xdr:spPr>
         <a:xfrm rot="7778893">
           <a:off x="3157916" y="5780905"/>
+          <a:ext cx="815922" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D9ED92-6CBC-486D-9AD0-CAE8A8507B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1530350" y="8328025"/>
+          <a:ext cx="561975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B825003-03BF-4726-ABCC-933CF25651D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7073900" y="5191125"/>
+          <a:ext cx="561975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>284513</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>560738</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矢印: 右 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D7CF27-517A-4D59-B901-F11ADCDD8285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7778893">
+          <a:off x="3208715" y="6263505"/>
           <a:ext cx="815922" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3062,186 +3293,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矢印: 右 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9C0D4C-5598-4C5B-A6A5-33498FB276DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5357813" y="2852737"/>
-          <a:ext cx="533400" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>809625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1085850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矢印: 右 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB7F9BD-0942-4C45-9AD6-8FCCA4AA88A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7035800" y="4467225"/>
-          <a:ext cx="561975" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>283468</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>189841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>559693</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85934</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矢印: 右 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D271DDEF-F514-47C1-A6E8-FB029E7FA222}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="13626673">
-          <a:off x="3210384" y="2971575"/>
-          <a:ext cx="810493" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>233714</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -3362,136 +3413,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16334</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>20377</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矢印: 右 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8632057D-4549-4B32-B7EB-E76B94CC3157}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5357813" y="2852737"/>
-          <a:ext cx="533400" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>809625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1085850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矢印: 右 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC4E555-8EF6-45D4-ABCB-853B7A9F241A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7035800" y="4467225"/>
-          <a:ext cx="561975" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>283468</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>189841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>559693</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85934</xdr:rowOff>
+      <xdr:rowOff>47400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3505,8 +3436,8 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="13626673">
-          <a:off x="3210384" y="2971575"/>
+        <a:xfrm rot="8113441">
+          <a:off x="3210384" y="1599975"/>
           <a:ext cx="810493" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3595,6 +3526,266 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矢印: 右 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CAE91B8-A005-4F1F-AF58-950F20FB341E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7051675" y="2527300"/>
+          <a:ext cx="561975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5827D0D3-0668-ABA2-3214-F0A8D3B499E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3892550" y="4210050"/>
+          <a:ext cx="368300" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163864</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>440089</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>199972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矢印: 右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A72D4AF-484A-46BA-8C73-7E69A9C3D123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7778893">
+          <a:off x="3088066" y="6054698"/>
+          <a:ext cx="815922" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>140443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D7C1D7E-FA07-41AF-A82B-0E12AF734D12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3822700" y="6084043"/>
+          <a:ext cx="368300" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>②</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3868,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3922,7 +4113,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3930,7 +4121,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -3966,13 +4157,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3988,7 +4179,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3996,7 +4187,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4007,13 +4198,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="72">
@@ -4021,13 +4212,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4049,7 +4240,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="90">
@@ -4057,13 +4248,13 @@
         <v>8</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4152,7 +4343,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -4205,7 +4396,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="126">
@@ -4213,7 +4404,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -4241,7 +4432,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="144">
@@ -4255,7 +4446,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4263,7 +4454,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4294,185 +4485,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E092427-6842-4445-A08A-D1A82D22F7F8}">
   <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="191" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="72">
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="54">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8B073E-7897-4885-9CD0-D33AE4B899CA}">
-  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -4492,7 +4504,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4521,27 +4533,39 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="126">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="191" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4557,27 +4581,27 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="144">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72">
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4585,7 +4609,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4599,6 +4623,261 @@
         <v>10</v>
       </c>
       <c r="B18" s="2"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="54">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8B073E-7897-4885-9CD0-D33AE4B899CA}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="36">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="126">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="72">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4615,9 +4894,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD0365D-8778-4426-8F1A-09C89DF62B28}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4635,7 +4914,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4664,27 +4943,27 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="126">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4696,31 +4975,51 @@
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="144">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="126">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4728,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4742,6 +5041,26 @@
         <v>10</v>
       </c>
       <c r="B18" s="2"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9504E-1BC0-4396-A39D-91770E44BFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC3240-5B84-431A-A749-E5054E66AE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ユーザ登録" sheetId="1" r:id="rId1"/>
-    <sheet name="ログイン処理" sheetId="2" r:id="rId2"/>
+    <sheet name="ログイン処理" sheetId="2" r:id="rId1"/>
+    <sheet name="ユーザ登録" sheetId="1" r:id="rId2"/>
     <sheet name="コメント登録" sheetId="3" r:id="rId3"/>
     <sheet name="パスワード再設定" sheetId="5" r:id="rId4"/>
     <sheet name="話題新規作成" sheetId="6" r:id="rId5"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="78">
   <si>
     <t>ユーザ登録処理</t>
     <rPh sb="3" eb="7">
@@ -127,10 +127,6 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -259,11 +255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserID（R）
-UserPass（R）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【新規登録】クリック</t>
     <rPh sb="1" eb="5">
       <t>シンキトウロク</t>
@@ -438,37 +429,6 @@
     <t>UserExist.php</t>
   </si>
   <si>
-    <t>ユーザが存在するかチェック
-パスワードが正しいかチェック
-チェックOKの場合
-comment_registration.php
-を呼出
-チェックNGの場合
-ログイン画面を表示</t>
-    <rPh sb="4" eb="6">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>comment_registration.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -515,13 +475,6 @@
   </si>
   <si>
     <t>user_id（R）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>msg_id(I)
-user_id(I)
-chat_main(I)
-sent_time(I)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -738,10 +691,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>message</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースに登録
 home.htmlから遷移した場合、
 home.htmlに戻る
@@ -768,6 +717,53 @@
     <rPh sb="73" eb="74">
       <t>モド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msg_id（I）
+user_id（I）
+chat_main（I）
+sent_time（I）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザがログインしているかチェック
+チェックOKの場合
+comment_registration.php
+を呼出
+チェックNGの場合
+ログイン画面を表示</t>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat_room</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msg_id(I)
+room_id(I)
+user_id(I)
+chat_main(I)
+sent_time(I)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room_id(R)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -895,6 +891,371 @@
         <xdr:cNvPr id="2" name="矢印: 右 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED2E91C-19F8-4741-B1BA-DD6518B7AEB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="866775"/>
+          <a:ext cx="561975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矢印: 右 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510DE254-2CD3-48C3-9DB1-812BFB49406F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5353050" y="2019300"/>
+          <a:ext cx="561975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>809625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1085850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矢印: 右 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D08810F-8C57-4DD2-A36B-B23249390505}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="4619625"/>
+          <a:ext cx="561975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>283468</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>189841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>559693</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矢印: 右 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A120C3C0-F35B-4B9B-B262-4D550F3818D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13626673">
+          <a:off x="3197684" y="3095400"/>
+          <a:ext cx="848593" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>233714</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>24657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>509939</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154779</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83B9490-F35C-4B0E-AD8B-E6D6B878A16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7778893">
+          <a:off x="3149978" y="6023793"/>
+          <a:ext cx="844497" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>917575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>688975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1184275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAEDB24-AC3B-4655-9964-2BED5402D10F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3327400" y="1831975"/>
+          <a:ext cx="555625" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227DFACB-C5B1-4192-B944-73E369424584}"/>
             </a:ext>
           </a:extLst>
@@ -1505,371 +1866,6 @@
         <a:xfrm rot="5400000">
           <a:off x="5448297" y="8242300"/>
           <a:ext cx="428625" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矢印: 右 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED2E91C-19F8-4741-B1BA-DD6518B7AEB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="866775"/>
-          <a:ext cx="561975" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矢印: 右 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510DE254-2CD3-48C3-9DB1-812BFB49406F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5353050" y="2019300"/>
-          <a:ext cx="561975" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>809625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1085850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矢印: 右 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D08810F-8C57-4DD2-A36B-B23249390505}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7048500" y="4619625"/>
-          <a:ext cx="561975" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>283468</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>189841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>559693</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85934</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矢印: 右 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A120C3C0-F35B-4B9B-B262-4D550F3818D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="13626673">
-          <a:off x="3197684" y="3095400"/>
-          <a:ext cx="848593" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>233714</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>24657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>509939</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154779</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矢印: 右 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83B9490-F35C-4B0E-AD8B-E6D6B878A16C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="7778893">
-          <a:off x="3149978" y="6023793"/>
-          <a:ext cx="844497" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>917575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>688975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1184275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矢印: 右 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAEDB24-AC3B-4655-9964-2BED5402D10F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3327400" y="1831975"/>
-          <a:ext cx="555625" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2408,15 +2404,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1187450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>1250950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2431,7 +2427,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1727200" y="3771900"/>
+          <a:off x="1790700" y="4146550"/>
           <a:ext cx="1479550" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2589,6 +2585,66 @@
         <a:xfrm rot="8233514">
           <a:off x="3107120" y="8155802"/>
           <a:ext cx="815922" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87313</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>223840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD4D9BD-7137-411C-8033-A2E97D6D3E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2182277">
+          <a:off x="7027863" y="5621340"/>
+          <a:ext cx="584200" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4056,289 +4112,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="144">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="E19" s="4"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="72">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="90">
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="E32" s="4"/>
-      <c r="H32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="E33" s="4"/>
-      <c r="H33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="E34" s="4"/>
-      <c r="H34" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="H35" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307775C-FDAD-4FEC-9AA1-F7A5249BC81A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -4361,7 +4134,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4396,7 +4169,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="126">
@@ -4404,13 +4177,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4426,13 +4199,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="144">
@@ -4440,13 +4213,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4454,7 +4227,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4482,12 +4255,295 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="144">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="72">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="90">
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="E32" s="4"/>
+      <c r="H32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="E33" s="4"/>
+      <c r="H33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="E34" s="4"/>
+      <c r="H34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="H35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E092427-6842-4445-A08A-D1A82D22F7F8}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4504,7 +4560,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4533,19 +4589,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="191" customHeight="1">
@@ -4553,19 +4609,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4581,27 +4637,43 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="72">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="90">
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>55</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4609,7 +4681,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4632,13 +4704,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="54">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
@@ -4665,7 +4735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8B073E-7897-4885-9CD0-D33AE4B899CA}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4683,7 +4753,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4718,7 +4788,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36">
@@ -4726,13 +4796,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4748,7 +4818,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -4760,7 +4830,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="126">
@@ -4768,19 +4838,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4796,19 +4866,19 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="72">
@@ -4816,19 +4886,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4842,7 +4912,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4850,7 +4920,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4914,7 +4984,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4943,13 +5013,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4957,13 +5027,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4979,19 +5049,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="126">
@@ -4999,19 +5069,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5027,7 +5097,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5047,7 +5117,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5089,15 +5159,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -5241,6 +5302,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5248,14 +5318,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F49AE2C3-4D50-4846-A0C8-25D41A30099E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5273,6 +5335,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C96260-F6F0-437B-8A0B-59B492E42F8A}">
   <ds:schemaRefs>

--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC3240-5B84-431A-A749-E5054E66AE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC5C46-508A-45F2-8F8F-A80EE47FB1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン処理" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="85">
   <si>
     <t>ユーザ登録処理</t>
     <rPh sb="3" eb="7">
@@ -540,38 +540,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー情報取得
-存在していた場合、
-pass_change_2.htmlに遷移
-存在していない場合、
-pass_change_1.htmlに遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_info_change.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -688,42 +656,6 @@
   </si>
   <si>
     <t>new_topic_create.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベースに登録
-home.htmlから遷移した場合、
-home.htmlに戻る
-chat.htmlから遷移した場合、
-chat.htmlに戻る</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>msg_id（I）
-user_id（I）
-chat_main（I）
-sent_time（I）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -764,6 +696,160 @@
   </si>
   <si>
     <t>room_id(R)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更画面</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【変更パスワード】
+入力
+【確認用パスワード】
+入力
+【パスワード変更】
+クリック</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass_check.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報取得
+存在していた場合、
+pass_change_2.htmlに遷移
+存在していない場合、
+pass_change_1.htmlに戻る</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが入力されているかチェック
+チェックOKの場合、
+pass_change_3.htmlに遷移
+チェックNGの場合、
+pass_change_2.htmlに戻る</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>話題新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat_genre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_id（I）
+genre_name（I）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに登録
+home.htmlから遷移した場合、
+ホーム画面に戻る
+chat.htmlから遷移した場合、
+チャット画面に戻る</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room_id（I）
+genre_id（I）
+room_name（I）
+detail（I）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -834,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,10 +934,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2805,15 +2894,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>233714</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>24657</xdr:rowOff>
+      <xdr:colOff>347289</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>220619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>509939</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154779</xdr:rowOff>
+      <xdr:colOff>623514</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2828,8 +2917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="7778893">
-          <a:off x="3157916" y="5780905"/>
-          <a:ext cx="815922" cy="276225"/>
+          <a:off x="3259601" y="7360357"/>
+          <a:ext cx="839702" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3045,15 +3134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>233714</xdr:colOff>
+      <xdr:colOff>295412</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>24657</xdr:rowOff>
+      <xdr:rowOff>145647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>509939</xdr:colOff>
+      <xdr:colOff>571637</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>154779</xdr:rowOff>
+      <xdr:rowOff>207946</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3068,8 +3157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="7778893">
-          <a:off x="3157916" y="5780905"/>
-          <a:ext cx="815922" cy="276225"/>
+          <a:off x="3253525" y="4496384"/>
+          <a:ext cx="748099" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3106,13 +3195,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3166,14 +3255,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>269875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>546100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3188,7 +3277,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7073900" y="5191125"/>
+          <a:off x="7073900" y="5527675"/>
           <a:ext cx="561975" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3226,13 +3315,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>284513</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>50057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>560738</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>180179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3250,6 +3339,306 @@
         <a:xfrm rot="7778893">
           <a:off x="3208715" y="6263505"/>
           <a:ext cx="815922" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>244475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>520700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矢印: 右 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27199A06-23BA-4434-8EB1-48A6E55E0BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="5502275"/>
+          <a:ext cx="561975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>396875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>673100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矢印: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03771E4C-5F3B-4928-AC4A-4269B3B3D4C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="5883275"/>
+          <a:ext cx="561975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>269875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>546100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矢印: 右 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148368B2-2DA7-455E-A125-F8C407563AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="2784475"/>
+          <a:ext cx="561975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101598</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>889000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663573</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1187449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矢印: 右 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830BABDD-FB42-40DD-BE0C-6CF783CB5867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3295648" y="3403600"/>
+          <a:ext cx="561975" cy="298449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114298</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676273</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1441449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矢印: 右 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A4168D-4D2A-47E3-84E5-9FBB38F19476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3308348" y="6629400"/>
+          <a:ext cx="561975" cy="298449"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3657,8 +4046,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3674,7 +4063,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3892550" y="4210050"/>
-          <a:ext cx="368300" cy="381000"/>
+          <a:ext cx="368300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3842,6 +4231,126 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
             <a:t>②</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99119</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>203040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>729868</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952E9C43-E5AF-4B24-BDDF-6C9FC7CA8E0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1999309">
+          <a:off x="7039669" y="4089240"/>
+          <a:ext cx="630749" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 右 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA49A6B8-982C-4586-8FCC-8BBF0EBD03FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="2895600"/>
+          <a:ext cx="561975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4115,7 +4624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307775C-FDAD-4FEC-9AA1-F7A5249BC81A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4133,30 +4642,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -4259,7 +4768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4277,30 +4786,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -4542,8 +5051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E092427-6842-4445-A08A-D1A82D22F7F8}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4559,30 +5068,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -4615,7 +5124,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>16</v>
@@ -4657,7 +5166,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4665,7 +5174,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4673,7 +5182,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4733,9 +5242,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8B073E-7897-4885-9CD0-D33AE4B899CA}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4752,30 +5261,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -4844,13 +5353,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4861,93 +5370,149 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+    </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="72">
-      <c r="A17" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="144">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
+      <c r="E18" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="72">
+      <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4967,7 +5532,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4983,30 +5548,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -5019,7 +5584,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5033,7 +5598,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5049,19 +5614,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="126">
@@ -5069,19 +5634,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5090,6 +5655,22 @@
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="36">
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5159,6 +5740,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -5302,15 +5892,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5318,6 +5899,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F49AE2C3-4D50-4846-A0C8-25D41A30099E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5335,14 +5924,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C96260-F6F0-437B-8A0B-59B492E42F8A}">
   <ds:schemaRefs>

--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CC5C46-508A-45F2-8F8F-A80EE47FB1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F146ACA9-B9D5-465D-A535-B562C415D81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="84">
   <si>
     <t>ユーザ登録処理</t>
     <rPh sb="3" eb="7">
@@ -692,10 +692,6 @@
 user_id(I)
 chat_main(I)
 sent_time(I)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>room_id(R)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -920,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,6 +938,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2674,66 +2673,6 @@
         <a:xfrm rot="8233514">
           <a:off x="3107120" y="8155802"/>
           <a:ext cx="815922" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>87313</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>223840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>671513</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42865</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矢印: 右 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD4D9BD-7137-411C-8033-A2E97D6D3E78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2182277">
-          <a:off x="7027863" y="5621340"/>
-          <a:ext cx="584200" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4968,25 +4907,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="E32" s="4"/>
-      <c r="H32" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="E33" s="4"/>
       <c r="H33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="E34" s="4"/>
       <c r="H34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="H35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4995,6 +4931,9 @@
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5170,20 +5109,12 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="G14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
@@ -5353,7 +5284,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
@@ -5370,34 +5301,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-    </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="144">
@@ -5405,13 +5320,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5421,10 +5336,6 @@
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
@@ -5532,7 +5443,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5549,7 +5460,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5640,13 +5551,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5662,7 +5573,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36">
@@ -5670,7 +5581,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5740,15 +5651,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -5892,6 +5794,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5899,14 +5810,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F49AE2C3-4D50-4846-A0C8-25D41A30099E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5924,6 +5827,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C96260-F6F0-437B-8A0B-59B492E42F8A}">
   <ds:schemaRefs>

--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F146ACA9-B9D5-465D-A535-B562C415D81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED5986-BBDB-4BC7-BEE4-F764B588B3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="ユーザ登録" sheetId="1" r:id="rId2"/>
     <sheet name="コメント登録" sheetId="3" r:id="rId3"/>
     <sheet name="パスワード再設定" sheetId="5" r:id="rId4"/>
-    <sheet name="話題新規作成" sheetId="6" r:id="rId5"/>
+    <sheet name="スレッド新規作成" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="85">
   <si>
     <t>ユーザ登録処理</t>
     <rPh sb="3" eb="7">
@@ -116,10 +116,6 @@
   </si>
   <si>
     <t>UserCheck.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserRegist.php</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -371,13 +367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserRegist.php呼出</t>
-    <rPh sb="14" eb="16">
-      <t>ヨビダシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【メールアドレス】入力
 【パスワード】入力
 【ログイン】クリック</t>
@@ -459,17 +448,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userテーブルに登録
-sign_up_3.php呼出</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヨビダシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mail_address（R）password（R）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -595,35 +573,6 @@
   </si>
   <si>
     <t>new_topic.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>話題新規作成画面を表示</t>
-    <rPh sb="0" eb="2">
-      <t>ワダイ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>シンキサクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>話題新規作成画面</t>
-    <rPh sb="0" eb="2">
-      <t>ワダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>サクセイガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -656,30 +605,6 @@
   </si>
   <si>
     <t>new_topic_create.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザがログインしているかチェック
-チェックOKの場合
-comment_registration.php
-を呼出
-チェックNGの場合
-ログイン画面を表示</t>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -788,57 +713,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>話題新規作成</t>
-    <rPh sb="0" eb="2">
-      <t>ワダイ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>シンキサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>chat_genre</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>genre_id（I）
-genre_name（I）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベースに登録
-home.htmlから遷移した場合、
-ホーム画面に戻る
-chat.htmlから遷移した場合、
-チャット画面に戻る</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>モド</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -846,6 +721,134 @@
 genre_id（I）
 room_name（I）
 detail（I）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブルに登録
+sign_up_3.php呼出</t>
+  </si>
+  <si>
+    <t>ファイル名</t>
+  </si>
+  <si>
+    <t>機能</t>
+  </si>
+  <si>
+    <t>スレッド新規作成</t>
+    <rPh sb="4" eb="8">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド新規作成画面を表示</t>
+    <rPh sb="4" eb="8">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド新規作成画面</t>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>サクセイガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_id（R）
+genre_name（R）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザがログインしているかチェック
+チェックOKの場合
+new_topic.html
+を呼出①
+チェックNGの場合
+ログイン画面を表示②</t>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに登録
+home.htmlから遷移した場合、
+ホーム画面に戻る③
+chat.htmlから遷移した場合、
+チャット画面に戻る④</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザがログインしているかチェック
+チェックOKの場合
+comment_registration.php
+を呼出①
+チェックNGの場合
+ログイン画面を表示②</t>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -853,7 +856,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +866,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -889,7 +900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -912,11 +923,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,6 +983,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1510,13 +1570,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2446956</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>81315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>50697</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1570,13 +1630,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1629,15 +1689,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>504825</xdr:rowOff>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1652,7 +1712,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7058025" y="6419850"/>
+          <a:off x="7007225" y="7162800"/>
           <a:ext cx="561975" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1894,66 +1954,6 @@
         <a:xfrm rot="8123381">
           <a:off x="2734481" y="7448940"/>
           <a:ext cx="1220665" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685797</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>962022</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矢印: 右 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E3FA1F-7857-4744-8CD9-06DD8A2CA099}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5448297" y="8242300"/>
-          <a:ext cx="428625" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2054,15 +2054,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>233714</xdr:colOff>
+      <xdr:colOff>316263</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>24657</xdr:rowOff>
+      <xdr:rowOff>183407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>509939</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154779</xdr:rowOff>
+      <xdr:colOff>592488</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>84929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2077,7 +2077,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="7778893">
-          <a:off x="3157916" y="5780905"/>
+          <a:off x="3240465" y="6079355"/>
           <a:ext cx="815922" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2173,66 +2173,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>233714</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>24657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>509939</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154779</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="矢印: 右 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100F7CB0-171C-496A-BD55-CC1BE779D874}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="7778893">
-          <a:off x="3157916" y="5780905"/>
-          <a:ext cx="815922" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -2354,15 +2294,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
+      <xdr:colOff>1047750</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2377,8 +2317,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5765800" y="3733800"/>
-          <a:ext cx="1358900" cy="323850"/>
+          <a:off x="5886450" y="3708400"/>
+          <a:ext cx="336550" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2414,15 +2354,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>チェック</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>OK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の場合</a:t>
+            <a:t>②</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2492,15 +2424,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1250950</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>2279650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2609850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2515,8 +2447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790700" y="4146550"/>
-          <a:ext cx="1479550" cy="323850"/>
+          <a:off x="2819400" y="3784600"/>
+          <a:ext cx="330200" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2552,154 +2484,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>チェック</a:t>
+            <a:t>①</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>NG</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の場合②</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2520950</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA16319-6037-46BA-93A8-02BBC7587B9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1581150" y="8229600"/>
-          <a:ext cx="1479550" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>チェック</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>NG</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の場合②</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2567370</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>15102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>728992</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>62727</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矢印: 右 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13AF853-C40B-453F-88DA-D2F864F9FDC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="8233514">
-          <a:off x="3107120" y="8155802"/>
-          <a:ext cx="815922" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3618,74 +3404,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矢印: 右 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DE40CE-3328-449B-B051-8BF6238C9AD2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3336925" y="838200"/>
-          <a:ext cx="561975" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>233714</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>24657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>509939</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>154779</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3738,15 +3464,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>977900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:colOff>679450</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>1244600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3761,7 +3487,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3336925" y="838200"/>
+          <a:off x="3311525" y="1892300"/>
           <a:ext cx="561975" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3799,13 +3525,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>16334</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>228375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>20377</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>47400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3821,7 +3547,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="8113441">
-          <a:off x="3210384" y="1599975"/>
+          <a:off x="3210384" y="1828575"/>
           <a:ext cx="810493" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3859,13 +3585,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>233714</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>24657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>509939</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>154779</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3919,13 +3645,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>508000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3979,13 +3705,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>234950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4038,7 +3764,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>①</a:t>
+            <a:t>③</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4049,13 +3775,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>163864</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>440089</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>199972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4109,13 +3835,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>140443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>64243</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4168,68 +3894,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>②</a:t>
+            <a:t>④</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99119</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>203040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>729868</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>12540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矢印: 右 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952E9C43-E5AF-4B24-BDDF-6C9FC7CA8E0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1999309">
-          <a:off x="7039669" y="4089240"/>
-          <a:ext cx="630749" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4239,13 +3905,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>876300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4290,6 +3956,326 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矢印: 右 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA667C3A-3702-442D-BEC6-5AF254508B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7070725" y="876300"/>
+          <a:ext cx="561975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563563</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>830263</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矢印: 右 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2D932D-1F29-4A77-AE5C-0049793F665B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5254625" y="3257551"/>
+          <a:ext cx="561975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2651583</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>126774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1326</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>174399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矢印: 右 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926788E5-E508-4452-A8A4-BF542F3838DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8113441">
+          <a:off x="3191333" y="3327174"/>
+          <a:ext cx="810493" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2590800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F76537-034C-4FF5-83A5-2408378B4D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2825750" y="3384550"/>
+          <a:ext cx="304800" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8FC2F3-8EAF-4614-AD66-BEF19E74824C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019800" y="3257550"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4582,7 +4568,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4617,7 +4603,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="126">
@@ -4625,13 +4611,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4647,13 +4633,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="144">
@@ -4661,13 +4647,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4675,7 +4661,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4705,7 +4691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -4761,7 +4747,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4769,7 +4755,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -4805,13 +4791,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4827,7 +4813,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4835,7 +4821,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4846,27 +4832,39 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="72">
+        <v>28</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="90">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4877,100 +4875,72 @@
         <v>11</v>
       </c>
     </row>
+    <row r="26" spans="1:8">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="E27" s="4"/>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="E28" s="4"/>
+      <c r="H28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="H29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="30" spans="1:8">
-      <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="90">
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>48</v>
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="E33" s="4"/>
-      <c r="H33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="E34" s="4"/>
-      <c r="H34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="H35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="2"/>
+      <c r="B38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4988,7 +4958,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E092427-6842-4445-A08A-D1A82D22F7F8}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -5008,7 +4978,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5037,19 +5007,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="191" customHeight="1">
@@ -5057,19 +5027,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5081,47 +5051,60 @@
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="11" spans="1:8" ht="90">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5135,28 +5118,6 @@
         <v>10</v>
       </c>
       <c r="B18" s="2"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5193,7 +5154,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5228,7 +5189,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36">
@@ -5236,13 +5197,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5258,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -5267,10 +5228,10 @@
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="126">
@@ -5278,19 +5239,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5306,13 +5267,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="144">
@@ -5320,13 +5281,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5342,19 +5303,19 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="72">
@@ -5362,19 +5323,19 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5388,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5396,7 +5357,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5440,7 +5401,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD0365D-8778-4426-8F1A-09C89DF62B28}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -5460,7 +5421,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5489,28 +5450,32 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="162">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
@@ -5520,44 +5485,54 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="126">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="36">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5569,60 +5544,104 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="G13" s="2" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="126">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="36">
-      <c r="G14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="H18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5651,6 +5670,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -5794,15 +5822,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5810,6 +5829,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F49AE2C3-4D50-4846-A0C8-25D41A30099E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5827,14 +5854,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C96260-F6F0-437B-8A0B-59B492E42F8A}">
   <ds:schemaRefs>

--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED5986-BBDB-4BC7-BEE4-F764B588B3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834920A-00DB-4E5F-9513-56B32FE79ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン処理" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
   <si>
     <t>ユーザ登録処理</t>
     <rPh sb="3" eb="7">
@@ -84,19 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ登録画面を表示</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>処理</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -115,10 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserCheck.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -185,39 +168,6 @@
     <rPh sb="4" eb="6">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未入力チェック
-チェックOKの場合
-UserExist.php呼出
-チェックNGの場合
-ログイン画面再表示</t>
-    <rPh sb="0" eb="3">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="52" eb="55">
-      <t>サイヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserExist.php</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -258,10 +208,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sign_up_1.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ登録確認画面</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
@@ -300,30 +246,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未入力チェック
-メールアドレスチェック
-チェックOKの場合
-sign_up_2.php呼出
-チェックNGの場合
-sign_up_1.phpに戻る</t>
-    <rPh sb="0" eb="3">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【ユーザ名】表示
 【パスワード】表示
 【メールアドレス】表示
@@ -346,10 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sign_up_2.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー登録情報を表示</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -360,10 +278,6 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sign_up_3.php</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -379,10 +293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメント登録</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -413,9 +323,6 @@
       <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserExist.php</t>
   </si>
   <si>
     <t>comment_registration.php</t>
@@ -503,10 +410,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pass_change_1.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【パスワード】表示
 【パスワード変更】クリック</t>
     <rPh sb="7" eb="9">
@@ -527,38 +430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id（R）
-password（R）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>取得したユーザー情報のパスワードを更新
-pass_change_4.htmlに遷移</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード再設定画面</t>
-    <rPh sb="5" eb="8">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード変更完了画面</t>
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
@@ -569,10 +440,6 @@
     <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>new_topic.html</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -601,10 +468,6 @@
     <rPh sb="43" eb="47">
       <t>シンキサクセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>new_topic_create.php</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -658,65 +521,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー情報取得
-存在していた場合、
-pass_change_2.htmlに遷移
-存在していない場合、
-pass_change_1.htmlに戻る</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードが入力されているかチェック
-チェックOKの場合、
-pass_change_3.htmlに遷移
-チェックNGの場合、
-pass_change_2.htmlに戻る</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chat_genre</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>room_id（I）
 genre_id（I）
 room_name（I）
@@ -724,10 +528,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userテーブルに登録
-sign_up_3.php呼出</t>
-  </si>
-  <si>
     <t>ファイル名</t>
   </si>
   <si>
@@ -760,35 +560,6 @@
     </rPh>
     <rPh sb="6" eb="10">
       <t>サクセイガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>genre_id（R）
-genre_name（R）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザがログインしているかチェック
-チェックOKの場合
-new_topic.html
-を呼出①
-チェックNGの場合
-ログイン画面を表示②</t>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -847,6 +618,326 @@
       <t>ガメン</t>
     </rPh>
     <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_check.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_exist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new_thread.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new_thread_create.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sign_up.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力チェック
+メールアドレスチェック
+チェックOKの場合
+sign_up_check.html呼出
+チェックNGの場合
+sign_up.htmlに戻る</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sign_up_check.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sign_up_completion.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input_check.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面を表示</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブルに登録
+sign_up_completion.html呼出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sign_up_registration.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_check.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_info_get.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力チェック
+チェックOKの場合
+user_exist.php呼出
+チェックNGの場合
+ログイン画面再表示</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>サイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録完了画面を表示</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id（R）
+user_name（R）
+mail_address（R）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass_change.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報取得
+存在していた場合、
+pass_change_forget.htmlに遷移
+存在していない場合、
+pass_change.htmlに戻る</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass_change_forget.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更画面を表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが入力されているかチェック
+チェックOKの場合、
+pass_change_check.htmlに遷移
+チェックNGの場合、
+pass_change_forget.htmlに戻る</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定確認画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再設定確認画面を
+表示</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass_change_completion.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したユーザー情報のパスワードを更新
+pass_change_completion.htmlに遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更完了画面を表示</t>
+    <rPh sb="5" eb="9">
+      <t>ヘンコウカンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザがログインしているかチェック
+チェックOKの場合
+new_thread.html
+を呼出①
+チェックNGの場合
+ログイン画面を表示②</t>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面を表示</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット画面を表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -978,12 +1069,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,6 +1080,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1570,13 +1661,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2446956</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>81315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>50697</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1630,13 +1721,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1892,8 +1983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5372097" y="4737100"/>
-          <a:ext cx="428625" cy="276225"/>
+          <a:off x="4686297" y="5422900"/>
+          <a:ext cx="1800225" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1954,6 +2045,66 @@
         <a:xfrm rot="8123381">
           <a:off x="2734481" y="7448940"/>
           <a:ext cx="1220665" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D40975-276A-4512-8C7F-CD3D63C847FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5238750" y="8416925"/>
+          <a:ext cx="542925" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2293,16 +2444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2584450</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2317,7 +2468,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5886450" y="3708400"/>
+          <a:off x="2787650" y="3752850"/>
           <a:ext cx="336550" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2423,16 +2574,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2279650</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2609850</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1358900</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2447,7 +2598,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819400" y="3784600"/>
+          <a:off x="5867400" y="3714750"/>
           <a:ext cx="330200" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2619,15 +2770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>347289</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>220619</xdr:rowOff>
+      <xdr:colOff>45573</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>169864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>623514</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>145921</xdr:rowOff>
+      <xdr:colOff>717025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>217489</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2641,9 +2792,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="7778893">
-          <a:off x="3259601" y="7360357"/>
-          <a:ext cx="839702" cy="276225"/>
+        <a:xfrm rot="8395650">
+          <a:off x="3239623" y="10228264"/>
+          <a:ext cx="671452" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2859,15 +3010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>295412</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>145647</xdr:rowOff>
+      <xdr:colOff>22915</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571637</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>207946</xdr:rowOff>
+      <xdr:colOff>799360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>151824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2881,9 +3032,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="7778893">
-          <a:off x="3253525" y="4496384"/>
-          <a:ext cx="748099" cy="276225"/>
+        <a:xfrm rot="8504443">
+          <a:off x="3216965" y="6047799"/>
+          <a:ext cx="776445" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2920,13 +3071,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2980,13 +3131,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>269875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>546100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3039,15 +3190,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>284513</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50057</xdr:rowOff>
+      <xdr:colOff>36661</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>227492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>560738</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180179</xdr:rowOff>
+      <xdr:colOff>751158</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>46517</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3061,9 +3212,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="7778893">
-          <a:off x="3208715" y="6263505"/>
-          <a:ext cx="815922" cy="276225"/>
+        <a:xfrm rot="8372317">
+          <a:off x="3230711" y="13943492"/>
+          <a:ext cx="714497" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3100,13 +3251,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>244475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>520700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3160,13 +3311,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>396875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>663575</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>673100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3340,13 +3491,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114298</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>676273</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1441449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3396,39 +3547,34 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>233714</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>24657</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>509939</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>154779</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矢印: 右 5">
+        <xdr:cNvPr id="14" name="矢印: 右 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2FAD2A-47D6-4679-B1E2-7F5791FA34D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063CBF34-C077-4208-A945-4C18E36AA321}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="7778893">
-          <a:off x="3157916" y="5780905"/>
-          <a:ext cx="815922" cy="276225"/>
+        <a:xfrm rot="5400000">
+          <a:off x="5245100" y="4537075"/>
+          <a:ext cx="561975" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3461,6 +3607,131 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矢印: 右 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B467F64B-74E6-484F-A1D5-1358E74C5977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5232400" y="9051925"/>
+          <a:ext cx="561975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矢印: 右 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EC61C1-14E3-45B2-BAC6-83DBFAC2DE52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5346700" y="12487275"/>
+          <a:ext cx="561975" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3584,15 +3855,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>233714</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>24657</xdr:rowOff>
+      <xdr:colOff>30669</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>184485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>509939</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>154779</xdr:rowOff>
+      <xdr:colOff>760229</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3606,9 +3877,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="7778893">
-          <a:off x="3157916" y="5780905"/>
-          <a:ext cx="815922" cy="276225"/>
+        <a:xfrm rot="8124670">
+          <a:off x="3224719" y="9557085"/>
+          <a:ext cx="729560" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3703,16 +3974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1060450</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>234950</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3727,8 +3998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3892550" y="4210050"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="5899150" y="8489950"/>
+          <a:ext cx="368300" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3773,76 +4044,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>163864</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1225550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>440089</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>199972</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矢印: 右 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A72D4AF-484A-46BA-8C73-7E69A9C3D123}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="7778893">
-          <a:off x="3088066" y="6054698"/>
-          <a:ext cx="815922" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>140443</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>64243</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1593850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>26143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3857,7 +4068,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3822700" y="6084043"/>
+          <a:off x="6064250" y="11075143"/>
           <a:ext cx="368300" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3928,66 +4139,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3362325" y="2895600"/>
-          <a:ext cx="561975" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矢印: 右 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA667C3A-3702-442D-BEC6-5AF254508B4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7070725" y="876300"/>
           <a:ext cx="561975" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -4276,6 +4427,186 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>①</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>544513</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>222253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>811213</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F67FB4E-12CA-40E5-957F-F3197D72E7E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5249069" y="8585997"/>
+          <a:ext cx="534988" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>493713</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>760413</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>134941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矢印: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85E25D3-E750-4BC9-B81C-80B527A054FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5198269" y="11164097"/>
+          <a:ext cx="534988" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>62419</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>791979</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>219410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF97CB4-44BB-43E3-BD4F-A31C1BD5BD7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8124670">
+          <a:off x="3256469" y="12973385"/>
+          <a:ext cx="729560" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4549,7 +4880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307775C-FDAD-4FEC-9AA1-F7A5249BC81A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4567,30 +4898,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -4603,7 +4934,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="126">
@@ -4611,21 +4942,21 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4633,13 +4964,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="144">
@@ -4647,13 +4978,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4661,7 +4992,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4672,7 +5003,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2"/>
     </row>
@@ -4691,7 +5022,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -4711,30 +5042,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -4747,7 +5078,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4755,21 +5086,21 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4777,13 +5108,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="144">
@@ -4791,21 +5122,21 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4813,7 +5144,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4821,7 +5152,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4832,19 +5163,19 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="90">
@@ -4852,95 +5183,111 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="E27" s="4"/>
-      <c r="H27" s="1" t="s">
+    </row>
+    <row r="30" spans="1:8">
+      <c r="D30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="D31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="E33" s="4"/>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="E34" s="4"/>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="H35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="E28" s="4"/>
-      <c r="H28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="H29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="B37" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4977,49 +5324,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="191" customHeight="1">
@@ -5027,27 +5374,27 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5061,13 +5408,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="90">
@@ -5079,21 +5426,21 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5104,7 +5451,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5115,7 +5462,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2"/>
     </row>
@@ -5134,9 +5481,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8B073E-7897-4885-9CD0-D33AE4B899CA}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -5153,30 +5500,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -5189,7 +5536,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36">
@@ -5197,21 +5544,21 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5219,19 +5566,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="126">
@@ -5239,152 +5586,200 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>68</v>
-      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="144">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="144">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="36">
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="90">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="72">
-      <c r="A25" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2" t="s">
+      <c r="B46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="2"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5401,7 +5796,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD0365D-8778-4426-8F1A-09C89DF62B28}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -5420,82 +5815,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="162">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
@@ -5508,16 +5888,12 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="36">
+        <v>65</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -5526,45 +5902,37 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="126">
@@ -5572,76 +5940,103 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="2"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/03_DB設計書/サーバサイド設計.xlsx
+++ b/03_DB設計書/サーバサイド設計.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834920A-00DB-4E5F-9513-56B32FE79ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1032C971-13DF-4146-A51D-06A94AF39D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン処理" sheetId="2" r:id="rId1"/>
@@ -421,10 +421,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_info_change.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_id（R）
 password（U）</t>
     <phoneticPr fontId="1"/>
@@ -940,6 +936,10 @@
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usr_p_chg.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1055,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,12 +1086,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4884,14 +4878,14 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -4934,10 +4928,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="126">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="131.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -4948,7 +4942,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4964,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
@@ -4973,7 +4967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="144">
+    <row r="11" spans="1:8" ht="150">
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
@@ -5028,14 +5022,14 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -5078,7 +5072,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5092,7 +5086,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5114,10 +5108,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="144">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="150">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -5128,7 +5122,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5144,7 +5138,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5166,10 +5160,10 @@
         <v>23</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>12</v>
@@ -5178,7 +5172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="90">
+    <row r="24" spans="1:8" ht="93.75">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -5186,10 +5180,10 @@
         <v>25</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>13</v>
@@ -5208,18 +5202,18 @@
     </row>
     <row r="30" spans="1:8">
       <c r="D30" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="D31" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5311,14 +5305,14 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
   </cols>
@@ -5360,7 +5354,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -5369,7 +5363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="191" customHeight="1">
+    <row r="5" spans="1:8" ht="191.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -5380,7 +5374,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -5417,7 +5411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="90">
+    <row r="11" spans="1:8" ht="93.75">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -5432,7 +5426,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5483,18 +5477,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8B073E-7897-4885-9CD0-D33AE4B899CA}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
   </cols>
@@ -5536,10 +5530,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="36">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="37.5">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -5572,7 +5566,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
@@ -5581,7 +5575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="126">
+    <row r="11" spans="1:8" ht="150">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -5592,13 +5586,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5614,7 +5608,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5622,7 +5616,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5630,27 +5624,27 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="144">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="187.5">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5666,15 +5660,15 @@
         <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="36">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="37.5">
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5682,13 +5676,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>12</v>
@@ -5697,7 +5691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="90">
+    <row r="35" spans="1:8" ht="93.75">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -5708,13 +5702,13 @@
         <v>8</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5728,7 +5722,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5736,7 +5730,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5744,7 +5738,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5802,21 +5796,21 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5851,10 +5845,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="162">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="168.75">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -5865,7 +5859,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -5888,10 +5882,8 @@
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
@@ -5902,10 +5894,9 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
@@ -5920,39 +5911,39 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="126">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="131.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5968,7 +5959,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5976,7 +5967,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6007,7 +5998,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6015,7 +6006,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6057,7 +6048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6065,15 +6056,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
     <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
@@ -6217,6 +6199,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6224,14 +6215,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F49AE2C3-4D50-4846-A0C8-25D41A30099E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6249,6 +6232,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120F1888-39C5-479E-B2C4-E2B421ACFC0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C96260-F6F0-437B-8A0B-59B492E42F8A}">
   <ds:schemaRefs>
